--- a/teaching/traditional_assets/database/data/australia/australia_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.6134999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="E2">
-        <v>0.251</v>
+        <v>0.257</v>
       </c>
       <c r="F2">
-        <v>0.389</v>
+        <v>0.411</v>
       </c>
       <c r="G2">
-        <v>0.02186739015352038</v>
+        <v>0.02485077260660743</v>
       </c>
       <c r="H2">
-        <v>0.02186739015352038</v>
+        <v>0.02476637665147539</v>
       </c>
       <c r="I2">
-        <v>0.01923375056842949</v>
+        <v>0.01643419417207568</v>
       </c>
       <c r="J2">
-        <v>0.01614510458781005</v>
+        <v>0.01461549670334744</v>
       </c>
       <c r="K2">
-        <v>50.87</v>
+        <v>-4.685000000000002</v>
       </c>
       <c r="L2">
-        <v>0.06732398094229751</v>
+        <v>-0.007189000905338431</v>
       </c>
       <c r="M2">
-        <v>70.83</v>
+        <v>39.4869</v>
       </c>
       <c r="N2">
-        <v>0.04096255942260314</v>
+        <v>0.01812323297227832</v>
       </c>
       <c r="O2">
-        <v>1.392372714763122</v>
+        <v>-8.428367129135534</v>
       </c>
       <c r="P2">
-        <v>56.924</v>
+        <v>38.3069</v>
       </c>
       <c r="Q2">
-        <v>0.03292041130272853</v>
+        <v>0.01758165044978887</v>
       </c>
       <c r="R2">
-        <v>1.119009239237271</v>
+        <v>-8.176499466382067</v>
       </c>
       <c r="S2">
-        <v>13.906</v>
+        <v>1.18</v>
       </c>
       <c r="T2">
-        <v>0.1963292390230129</v>
+        <v>0.02988332839498669</v>
       </c>
       <c r="U2">
-        <v>414.834</v>
+        <v>302.698</v>
       </c>
       <c r="V2">
-        <v>0.2399076997813942</v>
+        <v>0.1389287681292455</v>
       </c>
       <c r="W2">
-        <v>0.0113053969538093</v>
+        <v>-0.055564451561249</v>
       </c>
       <c r="X2">
-        <v>0.04497500679370078</v>
+        <v>0.02955732802863713</v>
       </c>
       <c r="Y2">
-        <v>-0.03366960983989149</v>
+        <v>-0.08512177958988612</v>
       </c>
       <c r="Z2">
-        <v>1.771223011383603</v>
+        <v>4.399060367347767</v>
       </c>
       <c r="AA2">
-        <v>0.002159085873616841</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04164472556134355</v>
+        <v>0.02899702125238806</v>
       </c>
       <c r="AC2">
-        <v>-0.03941113711163664</v>
+        <v>-0.02896191979096616</v>
       </c>
       <c r="AD2">
-        <v>272.406</v>
+        <v>122.946</v>
       </c>
       <c r="AE2">
-        <v>86.49489035247339</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>358.9008903524734</v>
+        <v>122.946</v>
       </c>
       <c r="AG2">
-        <v>-55.93310964752663</v>
+        <v>-179.752</v>
       </c>
       <c r="AH2">
-        <v>0.1718840335027581</v>
+        <v>0.0534142342378351</v>
       </c>
       <c r="AI2">
-        <v>0.3155086981780908</v>
+        <v>0.1740246798945768</v>
       </c>
       <c r="AJ2">
-        <v>-0.03342868713368968</v>
+        <v>-0.08991880134944234</v>
       </c>
       <c r="AK2">
-        <v>-0.07739497760983442</v>
+        <v>-0.4451642941345459</v>
       </c>
       <c r="AL2">
-        <v>6.856</v>
+        <v>5.785</v>
       </c>
       <c r="AM2">
-        <v>6.694</v>
+        <v>5.699</v>
       </c>
       <c r="AN2">
-        <v>7.294309813897443</v>
+        <v>7.617472118959108</v>
       </c>
       <c r="AO2">
-        <v>1.605892648774796</v>
+        <v>1.851339671564391</v>
       </c>
       <c r="AP2">
-        <v>-1.497740250301958</v>
+        <v>-11.13705080545229</v>
       </c>
       <c r="AQ2">
-        <v>1.644756498356738</v>
+        <v>1.879277066151957</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SelfWealth Limited (ASX:SWF)</t>
+          <t>Sequoia Financial Group Limited (ASX:SEQ)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,110 +727,119 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.316</v>
+      </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.04939965694682676</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.04939965694682676</v>
       </c>
       <c r="I3">
-        <v>0.01796167234156877</v>
+        <v>0.03567753001715266</v>
       </c>
       <c r="J3">
-        <v>0.01796167234156877</v>
+        <v>0.02393442340346673</v>
       </c>
       <c r="K3">
-        <v>-2.42</v>
+        <v>1.33</v>
       </c>
       <c r="L3">
-        <v>-1.228426395939086</v>
+        <v>0.02281303602058319</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.3822</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.007784114052953157</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.2873684210526316</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.3822</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.007784114052953157</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.2873684210526316</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>1.78</v>
+        <v>15.9</v>
       </c>
       <c r="V3">
-        <v>0.08557692307692308</v>
+        <v>0.3238289205702647</v>
       </c>
       <c r="W3">
-        <v>-0.9603174603174602</v>
+        <v>0.06073059360730594</v>
       </c>
       <c r="X3">
-        <v>0.04201467215564007</v>
+        <v>0.02981979083973876</v>
       </c>
       <c r="Y3">
-        <v>-1.0023321324731</v>
+        <v>0.03091080276756718</v>
       </c>
       <c r="Z3">
-        <v>8.452123298522466</v>
+        <v>27.11627906976745</v>
       </c>
       <c r="AA3">
-        <v>0.1518142692786</v>
+        <v>0.6490125043823772</v>
       </c>
       <c r="AB3">
-        <v>0.04195096847911839</v>
+        <v>0.02914902881181435</v>
       </c>
       <c r="AC3">
-        <v>0.1098633007994816</v>
+        <v>0.6198634755705629</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AE3">
-        <v>0.1430775274355476</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.1430775274355476</v>
+        <v>2.97</v>
       </c>
       <c r="AG3">
-        <v>-1.636922472564452</v>
+        <v>-12.93</v>
       </c>
       <c r="AH3">
-        <v>0.006831733647937618</v>
+        <v>0.05703860188208182</v>
       </c>
       <c r="AI3">
-        <v>0.07518218536706107</v>
+        <v>0.114804793196753</v>
       </c>
       <c r="AJ3">
-        <v>-0.08542064656477491</v>
+        <v>-0.3574785734033729</v>
       </c>
       <c r="AK3">
-        <v>-13.29992978142712</v>
+        <v>-1.296890672016048</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="AM3">
-        <v>-0.008</v>
+        <v>0.03900000000000001</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.03125</v>
+      </c>
+      <c r="AO3">
+        <v>18.08695652173913</v>
       </c>
       <c r="AP3">
-        <v>-25.57691363381957</v>
+        <v>-4.489583333333333</v>
       </c>
       <c r="AQ3">
-        <v>-0</v>
+        <v>53.33333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Consolidated Operations Group Limited (ASX:COG)</t>
+          <t>COG Financial Services Limited (ASX:COG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,118 +859,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>1.299</v>
-      </c>
-      <c r="E4">
-        <v>0.033</v>
+        <v>0.9009999999999999</v>
       </c>
       <c r="G4">
-        <v>0.1357377049180328</v>
+        <v>0.1093439363817097</v>
       </c>
       <c r="H4">
-        <v>0.1357377049180328</v>
+        <v>0.1093439363817097</v>
       </c>
       <c r="I4">
-        <v>0.1116426099085488</v>
+        <v>0.07886017229953611</v>
       </c>
       <c r="J4">
-        <v>0.0789861508865476</v>
+        <v>0.07886017229953611</v>
       </c>
       <c r="K4">
-        <v>3.02</v>
+        <v>-6.94</v>
       </c>
       <c r="L4">
-        <v>0.01980327868852459</v>
+        <v>-0.04599072233267065</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>1.6447</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.01683418628454452</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>-0.2369884726224784</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>1.6447</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.01683418628454452</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>-0.2369884726224784</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>18.3</v>
+        <v>24</v>
       </c>
       <c r="V4">
-        <v>0.1861648016276704</v>
+        <v>0.2456499488229273</v>
       </c>
       <c r="W4">
-        <v>0.02337461300309598</v>
+        <v>-0.055564451561249</v>
       </c>
       <c r="X4">
-        <v>0.0542213770186576</v>
+        <v>0.03843643116028803</v>
       </c>
       <c r="Y4">
-        <v>-0.03084676401556163</v>
+        <v>-0.09400088272153703</v>
       </c>
       <c r="Z4">
-        <v>1.689329343931687</v>
+        <v>1.575156576200418</v>
       </c>
       <c r="AA4">
-        <v>0.1334336224568607</v>
+        <v>0.1242171189979123</v>
       </c>
       <c r="AB4">
-        <v>0.04100090754283853</v>
+        <v>0.03014729401554427</v>
       </c>
       <c r="AC4">
-        <v>0.09243271491402219</v>
+        <v>0.09406982498236807</v>
       </c>
       <c r="AD4">
-        <v>73.3</v>
+        <v>67</v>
       </c>
       <c r="AE4">
-        <v>2.872509944731548</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>76.17250994473154</v>
+        <v>67</v>
       </c>
       <c r="AG4">
-        <v>57.87250994473155</v>
+        <v>43</v>
       </c>
       <c r="AH4">
-        <v>0.4365874599320034</v>
+        <v>0.4068002428658167</v>
       </c>
       <c r="AI4">
-        <v>0.3531859946557472</v>
+        <v>0.3353353353353353</v>
       </c>
       <c r="AJ4">
-        <v>0.3705678417105051</v>
+        <v>0.3056147832267235</v>
       </c>
       <c r="AK4">
-        <v>0.2932146425099274</v>
+        <v>0.2445961319681456</v>
       </c>
       <c r="AL4">
-        <v>6.63</v>
+        <v>5.67</v>
       </c>
       <c r="AM4">
-        <v>6.63</v>
+        <v>5.67</v>
       </c>
       <c r="AN4">
-        <v>3.331818181818182</v>
+        <v>4.060606060606061</v>
       </c>
       <c r="AO4">
-        <v>2.458521870286576</v>
+        <v>2.098765432098765</v>
       </c>
       <c r="AP4">
-        <v>2.630568633851434</v>
+        <v>2.606060606060606</v>
       </c>
       <c r="AQ4">
-        <v>2.458521870286576</v>
+        <v>2.098765432098765</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +981,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mejority Capital Limited (ASX:MJC)</t>
+          <t>E&amp;P Financial Group Limited (ASX:EP1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -980,9 +989,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D5">
-        <v>4.116000000000001</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -990,100 +996,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.03171430220910144</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03171430220910144</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-0.752</v>
+        <v>-21.1</v>
       </c>
       <c r="L5">
-        <v>-0.5529411764705882</v>
+        <v>-0.1466296038915914</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>8.43</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.08005698005698006</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0.3995260663507109</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>8.43</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.08005698005698006</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0.3995260663507109</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
-        <v>0.174</v>
+        <v>26</v>
       </c>
       <c r="V5">
-        <v>0.05723684210526316</v>
+        <v>0.2469135802469136</v>
       </c>
       <c r="W5">
-        <v>-0.2071625344352617</v>
+        <v>-0.1381794368041913</v>
       </c>
       <c r="X5">
-        <v>0.04629359861690152</v>
+        <v>0.03233644499530791</v>
       </c>
       <c r="Y5">
-        <v>-0.2534561330521632</v>
+        <v>-0.1705158817994992</v>
       </c>
       <c r="Z5">
-        <v>0.4567831507789671</v>
+        <v>2.481034482758621</v>
       </c>
       <c r="AA5">
-        <v>0.01448655888782971</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04203265025315994</v>
+        <v>0.02864088356001469</v>
       </c>
       <c r="AC5">
-        <v>-0.02754609136533023</v>
+        <v>-0.02864088356001469</v>
       </c>
       <c r="AD5">
-        <v>0.74</v>
+        <v>25.6</v>
       </c>
       <c r="AE5">
-        <v>0.0993427449781102</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.8393427449781102</v>
+        <v>25.6</v>
       </c>
       <c r="AG5">
-        <v>0.6653427449781102</v>
+        <v>-0.3999999999999986</v>
       </c>
       <c r="AH5">
-        <v>0.2163621005296985</v>
+        <v>0.1955691367456073</v>
       </c>
       <c r="AI5">
-        <v>0.2461890187527917</v>
+        <v>0.1723905723905724</v>
       </c>
       <c r="AJ5">
-        <v>0.1795630770945161</v>
+        <v>-0.003813155386081969</v>
       </c>
       <c r="AK5">
-        <v>0.2056483029536371</v>
+        <v>-0.003265306122448968</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>11.74603174603175</v>
-      </c>
-      <c r="AP5">
-        <v>10.5609959520335</v>
       </c>
     </row>
     <row r="6">
@@ -1094,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HUB24 Limited (ASX:HUB)</t>
+          <t>Bell Financial Group Limited (ASX:BFG)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1103,10 +1106,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.8909999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.662</v>
+        <v>0.09230000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.257</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1115,34 +1118,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.003136306666961824</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.002071613087914257</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.02</v>
+        <v>22.7</v>
       </c>
       <c r="L6">
-        <v>0.07339181286549706</v>
+        <v>0.1291240045506257</v>
       </c>
       <c r="M6">
-        <v>2.4</v>
+        <v>17.7</v>
       </c>
       <c r="N6">
-        <v>0.00487904045537711</v>
+        <v>0.0396505376344086</v>
       </c>
       <c r="O6">
-        <v>0.4780876494023905</v>
+        <v>0.7797356828193832</v>
       </c>
       <c r="P6">
-        <v>2.4</v>
+        <v>17.7</v>
       </c>
       <c r="Q6">
-        <v>0.00487904045537711</v>
+        <v>0.0396505376344086</v>
       </c>
       <c r="R6">
-        <v>0.4780876494023905</v>
+        <v>0.7797356828193832</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1151,67 +1154,61 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>12.9</v>
+        <v>172.3</v>
       </c>
       <c r="V6">
-        <v>0.02622484244765196</v>
+        <v>0.3859767025089606</v>
       </c>
       <c r="W6">
-        <v>0.1172897196261682</v>
+        <v>0.1574202496532594</v>
       </c>
       <c r="X6">
-        <v>0.04207101390384343</v>
+        <v>0.02955732802863713</v>
       </c>
       <c r="Y6">
-        <v>0.07521870572232481</v>
+        <v>0.1278629216246223</v>
       </c>
       <c r="Z6">
-        <v>2.932176303207044</v>
+        <v>-1.793877551020408</v>
       </c>
       <c r="AA6">
-        <v>0.006074334805795756</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0.04188397259023678</v>
+        <v>0.02891596307159306</v>
       </c>
       <c r="AC6">
-        <v>-0.03580963778444102</v>
+        <v>-0.02891596307159306</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE6">
-        <v>5.127383119899056</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.127383119899056</v>
+        <v>18.5</v>
       </c>
       <c r="AG6">
-        <v>-7.772616880100944</v>
+        <v>-153.8</v>
       </c>
       <c r="AH6">
-        <v>0.01031609785302748</v>
+        <v>0.0397935039793504</v>
       </c>
       <c r="AI6">
-        <v>0.1012768743696678</v>
+        <v>0.1115802171290712</v>
       </c>
       <c r="AJ6">
-        <v>-0.01605490032398349</v>
+        <v>-0.5256322624743678</v>
       </c>
       <c r="AK6">
-        <v>-0.2060205674854063</v>
+        <v>23.66153846153846</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>-6.268239419436245</v>
       </c>
     </row>
     <row r="7">
@@ -1222,7 +1219,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sequoia Financial Group Limited (ASX:SEQ)</t>
+          <t>Euroz Limited (ASX:EZL)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1231,118 +1228,106 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.336</v>
+        <v>0.0581</v>
       </c>
       <c r="G7">
-        <v>0.01310996563573883</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01310996563573883</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0003346038205435641</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0003346038205435641</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>-0.702</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="L7">
-        <v>-0.01206185567010309</v>
+        <v>-0.0291588785046729</v>
       </c>
       <c r="M7">
-        <v>0.414</v>
+        <v>8.69</v>
       </c>
       <c r="N7">
-        <v>0.0215625</v>
+        <v>0.03876003568242641</v>
       </c>
       <c r="O7">
-        <v>-0.5897435897435898</v>
+        <v>-9.284188034188032</v>
       </c>
       <c r="P7">
-        <v>0.414</v>
+        <v>7.51</v>
       </c>
       <c r="Q7">
-        <v>0.0215625</v>
+        <v>0.03349687778768956</v>
       </c>
       <c r="R7">
-        <v>-0.5897435897435898</v>
+        <v>-8.023504273504273</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.1357882623705408</v>
       </c>
       <c r="U7">
-        <v>13.2</v>
+        <v>28.4</v>
       </c>
       <c r="V7">
-        <v>0.6875</v>
+        <v>0.1266726137377342</v>
       </c>
       <c r="W7">
-        <v>-0.03424390243902439</v>
+        <v>-0.01079584775086505</v>
       </c>
       <c r="X7">
-        <v>0.04476342728056747</v>
+        <v>0.02917861742230302</v>
       </c>
       <c r="Y7">
-        <v>-0.07900732971959185</v>
+        <v>-0.03997446517316806</v>
       </c>
       <c r="Z7">
-        <v>9.760793003544821</v>
+        <v>0.5212731406300747</v>
       </c>
       <c r="AA7">
-        <v>0.003265998630520987</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04158959736242088</v>
+        <v>0.02896191979096616</v>
       </c>
       <c r="AC7">
-        <v>-0.0383235987318999</v>
+        <v>-0.02896191979096616</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>3.13</v>
       </c>
       <c r="AE7">
-        <v>2.452630288221823</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>3.452630288221823</v>
+        <v>3.13</v>
       </c>
       <c r="AG7">
-        <v>-9.747369711778177</v>
+        <v>-25.27</v>
       </c>
       <c r="AH7">
-        <v>0.1524163085828055</v>
+        <v>0.01376853033035675</v>
       </c>
       <c r="AI7">
-        <v>0.1361843031263634</v>
+        <v>0.03815677191271486</v>
       </c>
       <c r="AJ7">
-        <v>-1.031180678241865</v>
+        <v>-0.1270296084049666</v>
       </c>
       <c r="AK7">
-        <v>-0.8020790133988694</v>
+        <v>-0.4711914972962893</v>
       </c>
       <c r="AL7">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>0.07200000000000001</v>
-      </c>
-      <c r="AN7">
-        <v>0.6238303181534622</v>
-      </c>
-      <c r="AO7">
-        <v>-1.460176991150443</v>
-      </c>
-      <c r="AP7">
-        <v>-6.080704748458002</v>
-      </c>
-      <c r="AQ7">
-        <v>-4.583333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1353,7 +1338,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Moelis Australia Limited (ASX:MOE)</t>
+          <t>SelfWealth Limited (ASX:SWF)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1361,113 +1346,107 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="F8">
-        <v>0.116</v>
+      <c r="D8">
+        <v>0.9109999999999999</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.009874326750448833</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002579138171131046</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001709364979377279</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.3</v>
+        <v>-1.92</v>
       </c>
       <c r="L8">
-        <v>0.1787109375</v>
+        <v>-0.3447037701974865</v>
       </c>
       <c r="M8">
-        <v>15.68</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.03018867924528302</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.8568306010928961</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>8.81</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.01696187909125915</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.4814207650273224</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>6.869999999999999</v>
-      </c>
-      <c r="T8">
-        <v>0.4381377551020408</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>74.09999999999999</v>
+        <v>3.63</v>
       </c>
       <c r="V8">
-        <v>0.1426646130150173</v>
+        <v>0.0405586592178771</v>
       </c>
       <c r="W8">
-        <v>0.1109090909090909</v>
+        <v>-1.090909090909091</v>
       </c>
       <c r="X8">
-        <v>0.0451865863068341</v>
+        <v>0.02900255410232814</v>
       </c>
       <c r="Y8">
-        <v>0.06572250460225681</v>
+        <v>-1.119911645011419</v>
       </c>
       <c r="Z8">
-        <v>0.6155344993062868</v>
+        <v>-278.4999999999998</v>
       </c>
       <c r="AA8">
-        <v>0.001052173116712694</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>0.04155084860808607</v>
+        <v>0.02898960953684316</v>
       </c>
       <c r="AC8">
-        <v>-0.04049867549137338</v>
+        <v>-0.02898960953684316</v>
       </c>
       <c r="AD8">
-        <v>98.7</v>
+        <v>0.106</v>
       </c>
       <c r="AE8">
-        <v>8.529481256380905</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>107.2294812563809</v>
+        <v>0.106</v>
       </c>
       <c r="AG8">
-        <v>33.12948125638091</v>
+        <v>-3.524</v>
       </c>
       <c r="AH8">
-        <v>0.171121028396857</v>
+        <v>0.001182956498448765</v>
       </c>
       <c r="AI8">
-        <v>0.3877687137342308</v>
+        <v>0.03598099117447386</v>
       </c>
       <c r="AJ8">
-        <v>0.05995966257049079</v>
+        <v>-0.04098818274867405</v>
       </c>
       <c r="AK8">
-        <v>0.1636593694296029</v>
+        <v>5.15204678362573</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>50.1015228426396</v>
-      </c>
-      <c r="AP8">
-        <v>16.81699556161468</v>
+        <v>-0.01</v>
+      </c>
+      <c r="AQ8">
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -1478,7 +1457,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Euroz Limited (ASX:EZL)</t>
+          <t>HUB24 Limited (ASX:HUB)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1487,7 +1466,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0153</v>
+        <v>0.305</v>
+      </c>
+      <c r="F9">
+        <v>0.411</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1496,103 +1478,97 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001406478313934606</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.001406478313934606</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.076</v>
+        <v>5.68</v>
       </c>
       <c r="L9">
-        <v>-0.00224188790560472</v>
+        <v>0.07415143603133159</v>
       </c>
       <c r="M9">
-        <v>13.45</v>
+        <v>2.64</v>
       </c>
       <c r="N9">
-        <v>0.1151541095890411</v>
+        <v>0.002396296632477081</v>
       </c>
       <c r="O9">
-        <v>-176.9736842105263</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="P9">
-        <v>12.4</v>
+        <v>2.64</v>
       </c>
       <c r="Q9">
-        <v>0.1061643835616438</v>
+        <v>0.002396296632477081</v>
       </c>
       <c r="R9">
-        <v>-163.1578947368421</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="S9">
-        <v>1.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.07806691449814131</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>19.2</v>
+        <v>23.3</v>
       </c>
       <c r="V9">
-        <v>0.1643835616438356</v>
+        <v>0.02114913315784697</v>
       </c>
       <c r="W9">
-        <v>-0.000763819095477387</v>
+        <v>0.1248351648351648</v>
       </c>
       <c r="X9">
-        <v>0.04244374416846737</v>
+        <v>0.02903851780211573</v>
       </c>
       <c r="Y9">
-        <v>-0.04320756326394476</v>
+        <v>0.09579664703304909</v>
       </c>
       <c r="Z9">
-        <v>0.49767602965476</v>
+        <v>3.61320754716981</v>
       </c>
       <c r="AA9">
-        <v>0.0006999705430744959</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04169985376026622</v>
+        <v>0.02899702125238806</v>
       </c>
       <c r="AC9">
-        <v>-0.04099988321719172</v>
+        <v>-0.02899702125238806</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="AE9">
-        <v>3.956601925788084</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>3.956601925788084</v>
+        <v>4.18</v>
       </c>
       <c r="AG9">
-        <v>-15.24339807421192</v>
+        <v>-19.12</v>
       </c>
       <c r="AH9">
-        <v>0.03276509824464624</v>
+        <v>0.003779795276160161</v>
       </c>
       <c r="AI9">
-        <v>0.04571115129011646</v>
+        <v>0.0748031496062992</v>
       </c>
       <c r="AJ9">
-        <v>-0.1500975592443605</v>
+        <v>-0.01766151231317778</v>
       </c>
       <c r="AK9">
-        <v>-0.2263088938335508</v>
+        <v>-0.5868631062001228</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>-18.16853167367332</v>
       </c>
     </row>
     <row r="10">
@@ -1603,7 +1579,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Evans Dixon Limited (ASX:ED1)</t>
+          <t>Finexia Financial Group Limited (ASX:FNX)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1611,6 +1587,9 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.0605</v>
+      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1618,103 +1597,94 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.002180458690890775</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.001439347731346438</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>11.8</v>
+        <v>-0.369</v>
       </c>
       <c r="L10">
-        <v>0.07044776119402986</v>
+        <v>-0.2598591549295775</v>
       </c>
       <c r="M10">
-        <v>23.06</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.1557056043214045</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>1.954237288135593</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>17.3</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.1168129642133694</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>1.466101694915254</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>5.760000000000002</v>
-      </c>
-      <c r="T10">
-        <v>0.2497831743278404</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>31.7</v>
+        <v>0.258</v>
       </c>
       <c r="V10">
-        <v>0.2140445644834571</v>
+        <v>0.02504854368932039</v>
       </c>
       <c r="W10">
-        <v>0.07908847184986596</v>
+        <v>-0.1371747211895911</v>
       </c>
       <c r="X10">
-        <v>0.0467213436325853</v>
+        <v>0.03020104583079722</v>
       </c>
       <c r="Y10">
-        <v>0.03236712821728067</v>
+        <v>-0.1673757670203883</v>
       </c>
       <c r="Z10">
-        <v>2.366616967754101</v>
+        <v>0.459993521218011</v>
       </c>
       <c r="AA10">
-        <v>-0.003406384763502853</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.04142359716492213</v>
+        <v>0.02945450214643213</v>
       </c>
       <c r="AC10">
-        <v>-0.04482998192842498</v>
+        <v>-0.02945450214643213</v>
       </c>
       <c r="AD10">
-        <v>10.5</v>
+        <v>0.908</v>
       </c>
       <c r="AE10">
-        <v>34.37613415362102</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>44.87613415362102</v>
+        <v>0.908</v>
       </c>
       <c r="AG10">
-        <v>13.17613415362102</v>
+        <v>0.65</v>
       </c>
       <c r="AH10">
-        <v>0.2325475860030279</v>
+        <v>0.08101356174161313</v>
       </c>
       <c r="AI10">
-        <v>0.2271333749182913</v>
+        <v>0.2830423940149626</v>
       </c>
       <c r="AJ10">
-        <v>0.08169921868954465</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="AK10">
-        <v>0.07943357385830054</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>1.612903225806452</v>
-      </c>
-      <c r="AP10">
-        <v>2.023983740955611</v>
       </c>
     </row>
     <row r="11">
@@ -1725,7 +1695,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bell Financial Group Limited (ASX:BFG)</t>
+          <t>Raiz Invest Limited (ASX:RZI)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1733,104 +1703,95 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D11">
-        <v>0.09970000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.469</v>
-      </c>
       <c r="G11">
-        <v>0</v>
+        <v>-0.4563380281690141</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0.4563380281690141</v>
       </c>
       <c r="I11">
-        <v>0.01243681361025205</v>
+        <v>-0.4605633802816902</v>
       </c>
       <c r="J11">
-        <v>0.00874628032069517</v>
+        <v>-0.4605633802816902</v>
       </c>
       <c r="K11">
-        <v>21.6</v>
+        <v>-3.13</v>
       </c>
       <c r="L11">
-        <v>0.1309090909090909</v>
+        <v>-0.4408450704225352</v>
       </c>
       <c r="M11">
-        <v>15.826</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.05954100827689993</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.7326851851851851</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>15.6</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.05869074492099322</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>0.7222222222222222</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.2260000000000009</v>
-      </c>
-      <c r="T11">
-        <v>0.014280298243397</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>238.7</v>
+        <v>8.91</v>
       </c>
       <c r="V11">
-        <v>0.8980436418359669</v>
+        <v>0.1631868131868132</v>
       </c>
       <c r="W11">
-        <v>0.1525423728813559</v>
+        <v>-0.1682795698924731</v>
       </c>
       <c r="X11">
-        <v>0.04883506382786437</v>
+        <v>0.02912555118338278</v>
       </c>
       <c r="Y11">
-        <v>0.1037073090534916</v>
+        <v>-0.1974051210758559</v>
       </c>
       <c r="Z11">
-        <v>-12.58545598173786</v>
+        <v>1.633686148182237</v>
       </c>
       <c r="AA11">
-        <v>-0.1100759259800492</v>
+        <v>-0.7524160147261852</v>
       </c>
       <c r="AB11">
-        <v>0.04127635778038648</v>
+        <v>0.02901479936562047</v>
       </c>
       <c r="AC11">
-        <v>-0.1513522837604356</v>
+        <v>-0.7814308140918057</v>
       </c>
       <c r="AD11">
-        <v>87.90000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="AE11">
-        <v>27.98962877154206</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>115.8896287715421</v>
+        <v>0.552</v>
       </c>
       <c r="AG11">
-        <v>-122.8103712284579</v>
+        <v>-8.358000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.3036226819799369</v>
+        <v>0.01000870322019147</v>
       </c>
       <c r="AI11">
-        <v>0.4455757398667264</v>
+        <v>0.02458578300374132</v>
       </c>
       <c r="AJ11">
-        <v>-0.8588760757234707</v>
+        <v>-0.1807447774750227</v>
       </c>
       <c r="AK11">
-        <v>-5.741584977475233</v>
+        <v>-0.6171909614532567</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1839,129 +1800,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>11.49019607843137</v>
+        <v>-0.1703703703703704</v>
       </c>
       <c r="AP11">
-        <v>-16.05364329783764</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Raiz Invest Limited (ASX:RZI)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>-1.130434782608696</v>
-      </c>
-      <c r="H12">
-        <v>-1.130434782608696</v>
-      </c>
-      <c r="I12">
-        <v>-1.099226572992001</v>
-      </c>
-      <c r="J12">
-        <v>-1.099226572992001</v>
-      </c>
-      <c r="K12">
-        <v>-4.92</v>
-      </c>
-      <c r="L12">
-        <v>-1.125858123569794</v>
-      </c>
-      <c r="M12">
-        <v>-0</v>
-      </c>
-      <c r="N12">
-        <v>-0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>-0</v>
-      </c>
-      <c r="Q12">
-        <v>-0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>4.78</v>
-      </c>
-      <c r="V12">
-        <v>0.1043668122270743</v>
-      </c>
-      <c r="W12">
-        <v>-0.204149377593361</v>
-      </c>
-      <c r="X12">
-        <v>0.04232666659592499</v>
-      </c>
-      <c r="Y12">
-        <v>-0.246476044189286</v>
-      </c>
-      <c r="Z12">
-        <v>0.3740445402452307</v>
-      </c>
-      <c r="AA12">
-        <v>-0.4111596981201336</v>
-      </c>
-      <c r="AB12">
-        <v>0.04207780757845189</v>
-      </c>
-      <c r="AC12">
-        <v>-0.4532375056985855</v>
-      </c>
-      <c r="AD12">
-        <v>0.266</v>
-      </c>
-      <c r="AE12">
-        <v>0.9481006198752284</v>
-      </c>
-      <c r="AF12">
-        <v>1.214100619875228</v>
-      </c>
-      <c r="AG12">
-        <v>-3.565899380124772</v>
-      </c>
-      <c r="AH12">
-        <v>0.02582418048771451</v>
-      </c>
-      <c r="AI12">
-        <v>0.06127457628116525</v>
-      </c>
-      <c r="AJ12">
-        <v>-0.0844317584081966</v>
-      </c>
-      <c r="AK12">
-        <v>-0.2371874094956247</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>-0.05790161079669134</v>
-      </c>
-      <c r="AP12">
-        <v>0.7762079625870203</v>
+        <v>2.579629629629629</v>
       </c>
     </row>
   </sheetData>
